--- a/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.6234366034255227</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9196628422048796</v>
+        <v>0.9196628422048794</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4558275104388982</v>
+        <v>0.4531402790052808</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4648996857419834</v>
+        <v>0.4666158660891635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5673950478018835</v>
+        <v>0.566956703105468</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.864859567834365</v>
+        <v>0.8696375077077715</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4860403224651168</v>
+        <v>0.4818024185202203</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5896764259881341</v>
+        <v>0.5906899758652077</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5877273782099949</v>
+        <v>0.5878142663991546</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8722392278645957</v>
+        <v>0.8680457767897718</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4798948692731251</v>
+        <v>0.4826558421880288</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5373040990715128</v>
+        <v>0.5419607294079646</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.591049110480445</v>
+        <v>0.588319638312092</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8857908675391417</v>
+        <v>0.8812680985140544</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5437532387551813</v>
+        <v>0.5442011482986927</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5615516703122116</v>
+        <v>0.5592282838983329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6711530502510987</v>
+        <v>0.663723899835144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9558204323947611</v>
+        <v>0.9557560496475513</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5736963707590398</v>
+        <v>0.5738380530437992</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.684484175461454</v>
+        <v>0.6842134947112889</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6765721468636257</v>
+        <v>0.6813170725497437</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9507975388516667</v>
+        <v>0.9523876400542287</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5450070671708122</v>
+        <v>0.5433355830953902</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6069461630854595</v>
+        <v>0.6059133105950644</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6594154543826976</v>
+        <v>0.6565479124477956</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9436652863009318</v>
+        <v>0.9437589889473448</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6843078210845956</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9445723532634199</v>
+        <v>0.9445723532634198</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6907504169147587</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.581878189320852</v>
+        <v>0.5797010002855182</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6339342846352043</v>
+        <v>0.6355548267452373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6456109014847431</v>
+        <v>0.6483418852693814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9106469866951381</v>
+        <v>0.9094252738373488</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6521782320508059</v>
+        <v>0.6517252321154786</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7179998013782626</v>
+        <v>0.7183067464125706</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6861966747791838</v>
+        <v>0.6878737957226728</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9310801843063876</v>
+        <v>0.9288600918418082</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6256977452268017</v>
+        <v>0.6280716330866252</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6855013665811194</v>
+        <v>0.6857640844463637</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.676910903865808</v>
+        <v>0.676520912591658</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9294589299974703</v>
+        <v>0.9310880310911616</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6563959859241366</v>
+        <v>0.6540064970501364</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7035833745941567</v>
+        <v>0.7069792991921098</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7252520523291387</v>
+        <v>0.7224361471822874</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9675255068366198</v>
+        <v>0.9657401891286707</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7225637250644973</v>
+        <v>0.7262451768117681</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7920465470408288</v>
+        <v>0.791973213986864</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.762373578763466</v>
+        <v>0.7576211982917062</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9705063897510963</v>
+        <v>0.970896106869244</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.680008408618297</v>
+        <v>0.678429192178807</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7367541330037426</v>
+        <v>0.7362343089158818</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7302545713305082</v>
+        <v>0.7290832810020053</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9629250424358382</v>
+        <v>0.9643339515405225</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7105261254688793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9428058980637337</v>
+        <v>0.9428058980637335</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7226462335263674</v>
@@ -969,7 +969,7 @@
         <v>0.744962329906113</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9524236504998003</v>
+        <v>0.9524236504998</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5738022685216037</v>
+        <v>0.5737244991522812</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7035580015749283</v>
+        <v>0.6986992007026486</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6726075122202321</v>
+        <v>0.6746139584097678</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9181661875733422</v>
+        <v>0.9210833135550437</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6849289783847428</v>
+        <v>0.6901781633201176</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7762570846885518</v>
+        <v>0.7778621380864021</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7494481909991992</v>
+        <v>0.7467504475691008</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9466995512772539</v>
+        <v>0.9445740348361558</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6411923193919489</v>
+        <v>0.6456040260473523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.749243078128963</v>
+        <v>0.7477166483641093</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7213731447287115</v>
+        <v>0.722338133450672</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9397055972276136</v>
+        <v>0.9391183498460873</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6555332086494047</v>
+        <v>0.6516958881041679</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7663203451410406</v>
+        <v>0.7668862605854505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.743304942336706</v>
+        <v>0.7431202238076835</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9609027179376826</v>
+        <v>0.9611597731912864</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7523599019109117</v>
+        <v>0.7560667222082068</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8400407502861421</v>
+        <v>0.8378400223698612</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8101183129137157</v>
+        <v>0.8103709031582212</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.973176763099083</v>
+        <v>0.9731422754310396</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6961229802070933</v>
+        <v>0.6961362237446699</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7949868788920915</v>
+        <v>0.7956834861793379</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7678240026506258</v>
+        <v>0.7675880146761904</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9637395584418604</v>
+        <v>0.9626924949312291</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7110431522409079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9491785204493223</v>
+        <v>0.9491785204493222</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7715992308428457</v>
@@ -1093,7 +1093,7 @@
         <v>0.8037640271237373</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9621464347150434</v>
+        <v>0.9621464347150436</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7076176768213243</v>
@@ -1105,7 +1105,7 @@
         <v>0.7576870244758668</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9558210141473997</v>
+        <v>0.9558210141473999</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5958265128491487</v>
+        <v>0.5992420321275792</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.685329329982539</v>
+        <v>0.6873992154243861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6741500335679043</v>
+        <v>0.6750965589686407</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9260432360718994</v>
+        <v>0.9293249619494417</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7330827704790098</v>
+        <v>0.7338440240379953</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7951956253946971</v>
+        <v>0.799845178232547</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7695986486961677</v>
+        <v>0.7715615216944812</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9483030668479084</v>
+        <v>0.9499573664767089</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6796218363293881</v>
+        <v>0.6755308723176131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7529033638200753</v>
+        <v>0.752434998477677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7287880015387866</v>
+        <v>0.7311138773909297</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9438253743033045</v>
+        <v>0.9450529682682541</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6874242128134215</v>
+        <v>0.6855497912532592</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7640530743590659</v>
+        <v>0.7670495037881381</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7452876398690401</v>
+        <v>0.7493851113130043</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9637403224512148</v>
+        <v>0.9638746646342207</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.809238069788655</v>
+        <v>0.8062817652073418</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.860772490609287</v>
+        <v>0.8593481629297887</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8326123583997113</v>
+        <v>0.8333002066116925</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9718042044045239</v>
+        <v>0.9721016602799749</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7351150512376632</v>
+        <v>0.7337874459109908</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8010969222812346</v>
+        <v>0.8014275021902528</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7805265381885845</v>
+        <v>0.7832259285955312</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9650713561460681</v>
+        <v>0.9654199075930772</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.8278775461070126</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9649939964960145</v>
+        <v>0.9649939964960146</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7247890753364696</v>
@@ -1241,7 +1241,7 @@
         <v>0.8041931916384518</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9510557860719484</v>
+        <v>0.9510557860719476</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6549599150261158</v>
+        <v>0.6564500392960336</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7305613514700191</v>
+        <v>0.7250689455824129</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7314478844644562</v>
+        <v>0.7424963410551171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9164960251431191</v>
+        <v>0.9175182377893679</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.698118360834836</v>
+        <v>0.6995529070421564</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.781634876705919</v>
+        <v>0.7748119533595209</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7906897873667394</v>
+        <v>0.7919981265114744</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9508132853810002</v>
+        <v>0.9508806849663579</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6908776899027242</v>
+        <v>0.6933469219632455</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7687832282834028</v>
+        <v>0.7672801977533038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.77634916109372</v>
+        <v>0.7762583916215235</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9380658715110136</v>
+        <v>0.9393593757633903</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7447186042129083</v>
+        <v>0.7466812056832477</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8126801157507131</v>
+        <v>0.8114744334587281</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8146421853260865</v>
+        <v>0.8194002266905968</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9532688963211027</v>
+        <v>0.9529619392033014</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7831111682127271</v>
+        <v>0.7839012932492933</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8568529485161039</v>
+        <v>0.8540029557894934</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8627296656777582</v>
+        <v>0.8639278665146969</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9752619203576921</v>
+        <v>0.9761003927777373</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7561556945885969</v>
+        <v>0.7560490731624829</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8260697336749364</v>
+        <v>0.8236722197144389</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8287380205595511</v>
+        <v>0.8296060301722863</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9612343297137832</v>
+        <v>0.9612242509453455</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.8275872173244913</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.9587850604799782</v>
+        <v>0.9587850604799781</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6716718699285977</v>
+        <v>0.6717842279181079</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7706477815881964</v>
+        <v>0.7713410846163059</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7589207373660452</v>
+        <v>0.7621980851210286</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9297984090072553</v>
+        <v>0.9293129398368619</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7343869288748918</v>
+        <v>0.7354774684271678</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8373598691106282</v>
+        <v>0.8348719287599503</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.806783794817136</v>
+        <v>0.8063010883609352</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9516786479886862</v>
+        <v>0.94898446346737</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7231155254246379</v>
+        <v>0.7216456567876266</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.8210589980886986</v>
+        <v>0.8189318166268487</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7980498326087407</v>
+        <v>0.7995199557783751</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9461424727317138</v>
+        <v>0.9460574500730898</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7717048135573403</v>
+        <v>0.7731263255036671</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8611472602303168</v>
+        <v>0.8589677139419053</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8463398766301372</v>
+        <v>0.8485589793800323</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9680812648363104</v>
+        <v>0.9684185186683625</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.820500381138037</v>
+        <v>0.8187038233932011</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9085174622792134</v>
+        <v>0.9050788270137624</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8825380528556623</v>
+        <v>0.8815072528489925</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9765550446434909</v>
+        <v>0.9766010789697229</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7872397943785525</v>
+        <v>0.786623038930359</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8759924717349956</v>
+        <v>0.8768708404469039</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.856197938848143</v>
+        <v>0.8565773617729715</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.968514212377263</v>
+        <v>0.9684424622625024</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.8087568946429923</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.9617310249368262</v>
+        <v>0.9617310249368264</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6903505960680605</v>
+        <v>0.6918686675321464</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7899771677686311</v>
+        <v>0.7947598138546251</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7862093663985894</v>
+        <v>0.7849239064105389</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9403691932210962</v>
+        <v>0.9421691774695413</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7229988517307439</v>
+        <v>0.71968147760826</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8164490236234783</v>
+        <v>0.8119753901218142</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7370876534829273</v>
+        <v>0.7485111880242257</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9441397016509391</v>
+        <v>0.9441629341608231</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7264420691678748</v>
+        <v>0.7286140276859797</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.817051268047977</v>
+        <v>0.8167482771314819</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7763646458318234</v>
+        <v>0.7727133335238131</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.950447034293134</v>
+        <v>0.9501533441003392</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8080943809140475</v>
+        <v>0.8017569317360695</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8894297804861937</v>
+        <v>0.8960274377854041</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8731471741974343</v>
+        <v>0.8713865321147727</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9776615734123351</v>
+        <v>0.9803184223659965</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8181343467302048</v>
+        <v>0.8226321419132101</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8883920138683378</v>
+        <v>0.8867792913168479</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8374943641939772</v>
+        <v>0.8385849194962794</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9716220589039227</v>
+        <v>0.9717836896731864</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8020051073850007</v>
+        <v>0.8040074613994116</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8787088387393274</v>
+        <v>0.8760727871180899</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.838608620582627</v>
+        <v>0.8385332505614842</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9712837262208797</v>
+        <v>0.9728311434373023</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.7490856667729355</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.9507364393368332</v>
+        <v>0.9507364393368331</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6177819094330131</v>
+        <v>0.6160361948544836</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6969721790471286</v>
+        <v>0.6952862571398259</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7060988334748287</v>
+        <v>0.7062590082952122</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9319870849755064</v>
+        <v>0.933114333370953</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6941819389954378</v>
+        <v>0.6961098922633981</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7818896786822317</v>
+        <v>0.7818717245024267</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7602095461874366</v>
+        <v>0.7587026461628381</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9509075415943987</v>
+        <v>0.9508182653074082</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6595789440501905</v>
+        <v>0.6616919305088612</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.7444752489769761</v>
+        <v>0.7433835899677026</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.7386060304800989</v>
+        <v>0.7381901090429763</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.9450836908993709</v>
+        <v>0.9454715237452681</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6513687992264694</v>
+        <v>0.6498909466268467</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7279701507878756</v>
+        <v>0.7266359960446286</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7385782521067578</v>
+        <v>0.7374432492166588</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9511209811416641</v>
+        <v>0.9517132989287185</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7268794223330922</v>
+        <v>0.7256737620509387</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8090587413278787</v>
+        <v>0.8097926177105443</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7880286629912968</v>
+        <v>0.7887100599667769</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.963511874239131</v>
+        <v>0.9635685045573145</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6827159017497733</v>
+        <v>0.6845290510300438</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7656742497742314</v>
+        <v>0.764857777511878</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7592553431749243</v>
+        <v>0.760493680271219</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9559943003090421</v>
+        <v>0.9561209057931217</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>225208</v>
+        <v>223880</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>211132</v>
+        <v>211912</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>236184</v>
+        <v>236001</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>352684</v>
+        <v>354632</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>226703</v>
+        <v>224727</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>253141</v>
+        <v>253576</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>231461</v>
+        <v>231495</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>316197</v>
+        <v>314677</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>460936</v>
+        <v>463588</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>474673</v>
+        <v>478787</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>478799</v>
+        <v>476588</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>682329</v>
+        <v>678845</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>268649</v>
+        <v>268870</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>255026</v>
+        <v>253971</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>279374</v>
+        <v>276282</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>389777</v>
+        <v>389751</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>267589</v>
+        <v>267655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>293841</v>
+        <v>293725</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>266450</v>
+        <v>268319</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>344676</v>
+        <v>345252</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>523475</v>
+        <v>521870</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>536197</v>
+        <v>535284</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>534182</v>
+        <v>531859</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>726910</v>
+        <v>726982</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>427965</v>
+        <v>426364</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>435568</v>
+        <v>436681</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>379918</v>
+        <v>381525</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>434278</v>
+        <v>433696</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>407934</v>
+        <v>407650</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>438163</v>
+        <v>438350</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>384079</v>
+        <v>385018</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>465641</v>
+        <v>464530</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>851563</v>
+        <v>854794</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>889330</v>
+        <v>889671</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>777220</v>
+        <v>776772</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>908080</v>
+        <v>909671</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>482772</v>
+        <v>481015</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>483423</v>
+        <v>485756</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>426784</v>
+        <v>425127</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>461403</v>
+        <v>460552</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>451959</v>
+        <v>454262</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>483350</v>
+        <v>483306</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>426717</v>
+        <v>424057</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>485358</v>
+        <v>485553</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>925479</v>
+        <v>923330</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>955822</v>
+        <v>955148</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>838468</v>
+        <v>837123</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>940776</v>
+        <v>942152</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>366469</v>
+        <v>366419</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>479006</v>
+        <v>475697</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>449405</v>
+        <v>450746</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>569005</v>
+        <v>570813</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>472426</v>
+        <v>476046</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>551039</v>
+        <v>552179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>494181</v>
+        <v>492402</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>588979</v>
+        <v>587656</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>851768</v>
+        <v>857628</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1041972</v>
+        <v>1039850</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>957657</v>
+        <v>958938</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1166981</v>
+        <v>1166252</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>418668</v>
+        <v>416217</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>521736</v>
+        <v>522121</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>496642</v>
+        <v>496519</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>595490</v>
+        <v>595649</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>518936</v>
+        <v>521492</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>596317</v>
+        <v>594755</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>534186</v>
+        <v>534353</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>605451</v>
+        <v>605430</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>924738</v>
+        <v>924756</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1105588</v>
+        <v>1106557</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1019322</v>
+        <v>1019009</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1196828</v>
+        <v>1195527</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>309322</v>
+        <v>311095</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>419817</v>
+        <v>421085</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>430791</v>
+        <v>431396</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>648802</v>
+        <v>651101</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>378008</v>
+        <v>378401</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>486702</v>
+        <v>489548</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>497835</v>
+        <v>499105</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>697702</v>
+        <v>698919</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>703265</v>
+        <v>699032</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>922028</v>
+        <v>921454</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>937141</v>
+        <v>940132</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1355667</v>
+        <v>1357431</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>356874</v>
+        <v>355901</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>468041</v>
+        <v>469877</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>476249</v>
+        <v>478868</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>675213</v>
+        <v>675307</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>417277</v>
+        <v>415753</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>526838</v>
+        <v>525967</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>538597</v>
+        <v>539042</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>714992</v>
+        <v>715211</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>760689</v>
+        <v>759315</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>981047</v>
+        <v>981452</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1003671</v>
+        <v>1007142</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1386184</v>
+        <v>1386685</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>252733</v>
+        <v>253308</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>313724</v>
+        <v>311366</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>347347</v>
+        <v>352594</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>556812</v>
+        <v>557433</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>282030</v>
+        <v>282610</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>348583</v>
+        <v>345540</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>390174</v>
+        <v>390819</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>578907</v>
+        <v>578948</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>545698</v>
+        <v>547648</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>672989</v>
+        <v>671673</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>751766</v>
+        <v>751678</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1141062</v>
+        <v>1142636</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>287369</v>
+        <v>288126</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>348988</v>
+        <v>348471</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>386854</v>
+        <v>389114</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>579153</v>
+        <v>578966</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>316366</v>
+        <v>316685</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>382127</v>
+        <v>380856</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>425723</v>
+        <v>426314</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>593793</v>
+        <v>594304</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>597259</v>
+        <v>597174</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>723137</v>
+        <v>721039</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>802496</v>
+        <v>803337</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1169244</v>
+        <v>1169232</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>196520</v>
+        <v>196553</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>236371</v>
+        <v>236583</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>253029</v>
+        <v>254121</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>377568</v>
+        <v>377371</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>251846</v>
+        <v>252220</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>296422</v>
+        <v>295541</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>303098</v>
+        <v>302917</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>416884</v>
+        <v>415704</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>459552</v>
+        <v>458618</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>542484</v>
+        <v>541079</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>565892</v>
+        <v>566934</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>798663</v>
+        <v>798592</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>225788</v>
+        <v>226204</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>264129</v>
+        <v>263460</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>282175</v>
+        <v>282915</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>393114</v>
+        <v>393251</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>281377</v>
+        <v>280761</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>321612</v>
+        <v>320394</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>331558</v>
+        <v>331171</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>427781</v>
+        <v>427801</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>500304</v>
+        <v>499912</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>578780</v>
+        <v>579360</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>607124</v>
+        <v>607393</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>817548</v>
+        <v>817487</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>144893</v>
+        <v>145211</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>196532</v>
+        <v>197722</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>202054</v>
+        <v>201724</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>290978</v>
+        <v>291535</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>241415</v>
+        <v>240307</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>316008</v>
+        <v>314277</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>293967</v>
+        <v>298523</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>437451</v>
+        <v>437462</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>395033</v>
+        <v>396214</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>519509</v>
+        <v>519316</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>509155</v>
+        <v>506761</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>734470</v>
+        <v>734243</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>169605</v>
+        <v>168275</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>221274</v>
+        <v>222915</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>224397</v>
+        <v>223945</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>302518</v>
+        <v>303340</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>273182</v>
+        <v>274683</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>343854</v>
+        <v>343230</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>334011</v>
+        <v>334446</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>450185</v>
+        <v>450259</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>436123</v>
+        <v>437212</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>558713</v>
+        <v>557037</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>549976</v>
+        <v>549927</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>750572</v>
+        <v>751768</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2023674</v>
+        <v>2017955</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2383346</v>
+        <v>2377581</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2384617</v>
+        <v>2385157</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3288115</v>
+        <v>3292092</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2345042</v>
+        <v>2351555</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2774518</v>
+        <v>2774454</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2681855</v>
+        <v>2676539</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3547584</v>
+        <v>3547251</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4388737</v>
+        <v>4402797</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>5187540</v>
+        <v>5179933</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5100042</v>
+        <v>5097170</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>6860177</v>
+        <v>6862992</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2133695</v>
+        <v>2128854</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2489346</v>
+        <v>2484783</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2494305</v>
+        <v>2490472</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3355620</v>
+        <v>3357710</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2455498</v>
+        <v>2451425</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2870926</v>
+        <v>2873530</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2779995</v>
+        <v>2782399</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>3594607</v>
+        <v>3594819</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>4542687</v>
+        <v>4554752</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>5335256</v>
+        <v>5329566</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5242625</v>
+        <v>5251175</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>6939375</v>
+        <v>6940294</v>
       </c>
     </row>
     <row r="36">
